--- a/OnBoard/output/trust/catch/Catch_Trust_63.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_63.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,19 +847,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Buglossidium luteum</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.013</v>
+        <v>0.068</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -888,19 +888,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Callinectes sapidus</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="G13">
-        <v>0.068</v>
+        <v>0.434</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -929,16 +929,16 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Callinectes sapidus</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G14">
-        <v>0.434</v>
+        <v>0.283</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -970,19 +970,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G15">
-        <v>0.283</v>
+        <v>0.023</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1011,16 +1011,16 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Hippocampus hippocampus</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>HIPPHIC</t>
         </is>
       </c>
       <c r="G16">
-        <v>0.023</v>
+        <v>0.006</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1052,19 +1052,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hippocampus hippocampus</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>HIPPHIC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G17">
-        <v>0.006</v>
+        <v>0.161</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1093,19 +1093,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G18">
-        <v>0.161</v>
+        <v>0.097</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1134,19 +1134,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.097</v>
+        <v>1.462</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1175,19 +1175,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G20">
-        <v>1.462</v>
+        <v>0.303</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1216,22 +1216,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Actiniaria nd</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ACTINND</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.303</v>
+        <v>0.003</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="22">
@@ -1257,22 +1257,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Actiniaria nd</t>
+          <t>Anadara kagoshimensis</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ACTINND</t>
+          <t>ANADKAG</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.003</v>
+        <v>2.112</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="I22">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="23">
@@ -1298,22 +1298,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Anadara kagoshimensis</t>
+          <t>Anadara transversa</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ANADKAG</t>
+          <t>ANADTRA</t>
         </is>
       </c>
       <c r="G23">
-        <v>2.112</v>
+        <v>0.187</v>
       </c>
       <c r="H23">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="I23">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="24">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Anadara transversa</t>
+          <t>Aporrhais pespelecani</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ANADTRA</t>
+          <t>APORPES</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.187</v>
+        <v>0.143</v>
       </c>
       <c r="H24">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="25">
@@ -1380,22 +1380,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Aporrhais pespelecani</t>
+          <t>Ascidiella aspersa</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>APORPES</t>
+          <t>ASCIASP</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.143</v>
+        <v>0.006</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="26">
@@ -1421,22 +1421,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ascidiella aspersa</t>
+          <t>Astropecten irregularis</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ASCIASP</t>
+          <t>ASTRIRR</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.006</v>
+        <v>0.034</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I26">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="27">
@@ -1462,22 +1462,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G27">
-        <v>0.034</v>
+        <v>0.052</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="I27">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="28">
@@ -1503,22 +1503,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.052</v>
+        <v>0.479</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="I28">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="29">
@@ -1544,22 +1544,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Corbula gibba</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>CORBGIB</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.479</v>
+        <v>0.008</v>
       </c>
       <c r="H29">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="I29">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="30">
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Corbula gibba</t>
+          <t>Dentex dentex</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CORBGIB</t>
+          <t>DENTDEN</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="H30">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="31">
@@ -1626,22 +1626,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Dentex dentex</t>
+          <t>Eunicidae nd</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DENTDEN</t>
+          <t>EUNIND</t>
         </is>
       </c>
       <c r="G31">
         <v>0.001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="32">
@@ -1667,22 +1667,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Eunicidae nd</t>
+          <t>Hexaplex trunculus</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EUNIND</t>
+          <t>HEXATRU</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.001</v>
+        <v>1.755</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="I32">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="33">
@@ -1708,22 +1708,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Liocarcinus vernalis</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>LIOCVER</t>
         </is>
       </c>
       <c r="G33">
-        <v>1.755</v>
+        <v>0.006</v>
       </c>
       <c r="H33">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="34">
@@ -1749,22 +1749,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Liocarcinus vernalis</t>
+          <t>Maldanidae nd</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>LIOCVER</t>
+          <t>MALDAND</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I34">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Maldanidae nd</t>
+          <t>Modiolus barbatus</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MALDAND</t>
+          <t>MODIBAR</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.001</v>
+        <v>0.094</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I35">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="36">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Modiolus barbatus</t>
+          <t>Nassarius mutabilis</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MODIBAR</t>
+          <t>NASSMUT</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.094</v>
+        <v>0.001</v>
       </c>
       <c r="H36">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="37">
@@ -1872,22 +1872,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nassarius mutabilis</t>
+          <t>Nassarius nitidus</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NASSMUT</t>
+          <t>NASSNIT</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -1913,22 +1913,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Nassarius nitidus</t>
+          <t>Nucula sulcata</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NASSNIT</t>
+          <t>NUCUSUL</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.012</v>
+        <v>0.001</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="39">
@@ -1954,22 +1954,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Nucula sulcata</t>
+          <t>Ocnus planci (=Cucumaria planci)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NUCUSUL</t>
+          <t>OCNUPLA</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="40">
@@ -1995,22 +1995,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ocnus planci (=Cucumaria planci)</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>OCNUPLA</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.003</v>
+        <v>0.093</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="I40">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="41">
@@ -2036,22 +2036,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Polychaeta n.d. Tubes</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>TUBEPOL</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.093</v>
+        <v>0.002</v>
       </c>
       <c r="H41">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I41">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="42">
@@ -2077,22 +2077,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Polychaeta n.d. Tubes</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>TUBEPOL</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.002</v>
+        <v>2.647</v>
       </c>
       <c r="H42">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="I42">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="43">
@@ -2118,22 +2118,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Tethys fimbria</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>TETHFIM</t>
         </is>
       </c>
       <c r="G43">
-        <v>2.647</v>
+        <v>0.018</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="44">
@@ -2159,22 +2159,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Tethys fimbria</t>
+          <t>Trachythyone elongata</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>TETHFIM</t>
+          <t>TRACELO</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.018</v>
+        <v>0.001</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
     <row r="45">
@@ -2200,63 +2200,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Trachythyone elongata</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>TRACELO</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.001</v>
+        <v>0.103</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I45">
-        <v>39.12517241379311</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G46">
-        <v>0.103</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>39.12517241379311</v>
+        <v>39.12666666666667</v>
       </c>
     </row>
   </sheetData>
